--- a/data/trans_orig/P04B3_1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47763105-ABE0-4EB8-AB0E-439668C35433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C3B060-124A-49FD-A6C8-BBC9C392FDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC13FC97-BA93-4DC5-8423-40EE37E72CD8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5207776F-2A5E-45BA-86CF-80F8B81CADC6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población según si percibe la temperatura en la vivienda durante el verano como un problema en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>30,69%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
   </si>
   <si>
     <t>32,65%</t>
   </si>
   <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
   </si>
   <si>
     <t>31,88%</t>
   </si>
   <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
   </si>
   <si>
     <t>A veces</t>
@@ -104,28 +104,28 @@
     <t>16,84%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>Apenas</t>
@@ -134,28 +134,28 @@
     <t>12,38%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>16,12%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>14,65%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>Nunca/No</t>
@@ -164,28 +164,28 @@
     <t>40,09%</t>
   </si>
   <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
   </si>
   <si>
     <t>35,51%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,97 +197,100 @@
     <t>26,08%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
   </si>
   <si>
     <t>24,4%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>25,23%</t>
   </si>
   <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>17,98%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>43,92%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
   </si>
   <si>
     <t>48,57%</t>
   </si>
   <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
   </si>
   <si>
     <t>46,29%</t>
@@ -296,7 +299,7 @@
     <t>43,9%</t>
   </si>
   <si>
-    <t>50,88%</t>
+    <t>51,28%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -305,16 +308,13 @@
     <t>20,99%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
+    <t>24,46%</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>14,64%</t>
+    <t>14,57%</t>
   </si>
   <si>
     <t>19,92%</t>
@@ -323,127 +323,124 @@
     <t>19,0%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>9,83%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>10,54%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
   </si>
   <si>
     <t>16,85%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>19,84%</t>
   </si>
   <si>
     <t>16,7%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>50,12%</t>
   </si>
   <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
   </si>
   <si>
     <t>53,49%</t>
   </si>
   <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
   </si>
   <si>
     <t>51,86%</t>
   </si>
   <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>25,3%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>11,78%</t>
+    <t>11,67%</t>
   </si>
   <si>
     <t>14,08%</t>
@@ -452,46 +449,46 @@
     <t>12,85%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>15,55%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
   </si>
   <si>
     <t>44,54%</t>
   </si>
   <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
   </si>
   <si>
     <t>46,61%</t>
@@ -500,16 +497,16 @@
     <t>44,27%</t>
   </si>
   <si>
-    <t>51,39%</t>
+    <t>51,91%</t>
   </si>
   <si>
     <t>45,64%</t>
   </si>
   <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BF3911-0D03-433D-A677-72BBBF79A4B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EA0716-47E0-45D9-979D-8A467137E7C1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1440,10 +1437,10 @@
         <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,13 +1455,13 @@
         <v>949511</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1436</v>
@@ -1473,13 +1470,13 @@
         <v>1092154</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2315</v>
@@ -1488,13 +1485,13 @@
         <v>2041665</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1550,7 +1547,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1562,10 +1559,10 @@
         <v>141002</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>90</v>
@@ -1619,7 +1616,7 @@
         <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -1628,13 +1625,13 @@
         <v>89259</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="M15" s="7">
         <v>229</v>
@@ -1682,10 +1679,10 @@
         <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>269</v>
@@ -1694,13 +1691,13 @@
         <v>231114</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1712,13 @@
         <v>336734</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>546</v>
@@ -1730,13 +1727,13 @@
         <v>380902</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>887</v>
@@ -1745,13 +1742,13 @@
         <v>717636</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1816,13 @@
         <v>871090</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>1239</v>
@@ -1834,13 +1831,13 @@
         <v>943633</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>2131</v>
@@ -1849,13 +1846,13 @@
         <v>1814723</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1867,13 @@
         <v>428797</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>759</v>
@@ -1885,13 +1882,13 @@
         <v>492871</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>1214</v>
@@ -1900,13 +1897,13 @@
         <v>921667</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1918,13 @@
         <v>572251</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>825</v>
@@ -1936,13 +1933,13 @@
         <v>590477</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>1352</v>
@@ -1951,13 +1948,13 @@
         <v>1162728</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1969,13 @@
         <v>1503362</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>2524</v>
@@ -1987,13 +1984,13 @@
         <v>1769891</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>4012</v>
@@ -2002,13 +1999,13 @@
         <v>3273253</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04B3_1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C3B060-124A-49FD-A6C8-BBC9C392FDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF85FCC-39B3-431B-9183-7592D5FB3688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5207776F-2A5E-45BA-86CF-80F8B81CADC6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C155C3A6-E3C9-420C-8FA2-1B432E84171F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,442 +71,442 @@
     <t>A menudo</t>
   </si>
   <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
   </si>
   <si>
     <t>A veces</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>Apenas</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>Nunca/No</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>20,08%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>Apenas</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>Nunca/No</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EA0716-47E0-45D9-979D-8A467137E7C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A875175-6CD4-47C9-97F9-0CEBEFAB2A07}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1042,7 +1042,7 @@
         <v>210</v>
       </c>
       <c r="D4" s="7">
-        <v>166238</v>
+        <v>148867</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1057,7 +1057,7 @@
         <v>429</v>
       </c>
       <c r="I4" s="7">
-        <v>272922</v>
+        <v>235756</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1072,7 +1072,7 @@
         <v>639</v>
       </c>
       <c r="N4" s="7">
-        <v>439160</v>
+        <v>384623</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1093,7 +1093,7 @@
         <v>126</v>
       </c>
       <c r="D5" s="7">
-        <v>91223</v>
+        <v>87064</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1108,7 +1108,7 @@
         <v>235</v>
       </c>
       <c r="I5" s="7">
-        <v>131408</v>
+        <v>120776</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1123,7 +1123,7 @@
         <v>361</v>
       </c>
       <c r="N5" s="7">
-        <v>222631</v>
+        <v>207840</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1144,7 +1144,7 @@
         <v>87</v>
       </c>
       <c r="D6" s="7">
-        <v>67055</v>
+        <v>62974</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1159,82 +1159,82 @@
         <v>221</v>
       </c>
       <c r="I6" s="7">
-        <v>134788</v>
+        <v>122005</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>308</v>
       </c>
       <c r="N6" s="7">
-        <v>201843</v>
+        <v>184979</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>268</v>
       </c>
       <c r="D7" s="7">
-        <v>217117</v>
+        <v>216033</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>542</v>
       </c>
       <c r="I7" s="7">
-        <v>296835</v>
+        <v>276971</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>810</v>
       </c>
       <c r="N7" s="7">
-        <v>513952</v>
+        <v>493004</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1246,51 +1246,51 @@
         <v>691</v>
       </c>
       <c r="D8" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1427</v>
       </c>
       <c r="I8" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>2118</v>
       </c>
       <c r="N8" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1299,46 +1299,46 @@
         <v>542</v>
       </c>
       <c r="D9" s="7">
-        <v>563849</v>
+        <v>496049</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>548806</v>
+        <v>521991</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>1198</v>
       </c>
       <c r="N9" s="7">
-        <v>1112656</v>
+        <v>1018040</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1350,46 +1350,46 @@
         <v>242</v>
       </c>
       <c r="D10" s="7">
-        <v>254577</v>
+        <v>249772</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>382</v>
       </c>
       <c r="I10" s="7">
-        <v>272204</v>
+        <v>250849</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>624</v>
       </c>
       <c r="N10" s="7">
-        <v>526781</v>
+        <v>500621</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1401,97 +1401,97 @@
         <v>329</v>
       </c>
       <c r="D11" s="7">
-        <v>394085</v>
+        <v>389753</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>446</v>
       </c>
       <c r="I11" s="7">
-        <v>335686</v>
+        <v>311532</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>775</v>
       </c>
       <c r="N11" s="7">
-        <v>729770</v>
+        <v>701285</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>879</v>
       </c>
       <c r="D12" s="7">
-        <v>949511</v>
+        <v>1154753</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1436</v>
       </c>
       <c r="I12" s="7">
-        <v>1092154</v>
+        <v>1152831</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2315</v>
       </c>
       <c r="N12" s="7">
-        <v>2041665</v>
+        <v>2307585</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,51 +1503,51 @@
         <v>1992</v>
       </c>
       <c r="D13" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>2920</v>
       </c>
       <c r="I13" s="7">
-        <v>2248850</v>
+        <v>2237203</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>4912</v>
       </c>
       <c r="N13" s="7">
-        <v>4410872</v>
+        <v>4527530</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1556,46 +1556,46 @@
         <v>140</v>
       </c>
       <c r="D14" s="7">
-        <v>141002</v>
+        <v>126075</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>154</v>
       </c>
       <c r="I14" s="7">
-        <v>121905</v>
+        <v>106265</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>294</v>
       </c>
       <c r="N14" s="7">
-        <v>262907</v>
+        <v>232340</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,46 +1607,46 @@
         <v>87</v>
       </c>
       <c r="D15" s="7">
-        <v>82996</v>
+        <v>78767</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
       </c>
       <c r="I15" s="7">
-        <v>89259</v>
+        <v>83145</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M15" s="7">
         <v>229</v>
       </c>
       <c r="N15" s="7">
-        <v>172254</v>
+        <v>161912</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,10 +1658,10 @@
         <v>111</v>
       </c>
       <c r="D16" s="7">
-        <v>111111</v>
+        <v>106406</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>105</v>
@@ -1673,82 +1673,82 @@
         <v>158</v>
       </c>
       <c r="I16" s="7">
-        <v>120003</v>
+        <v>109747</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>269</v>
       </c>
       <c r="N16" s="7">
-        <v>231114</v>
+        <v>216153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>341</v>
       </c>
       <c r="D17" s="7">
-        <v>336734</v>
+        <v>334194</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>546</v>
       </c>
       <c r="I17" s="7">
-        <v>380902</v>
+        <v>359599</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>887</v>
       </c>
       <c r="N17" s="7">
-        <v>717636</v>
+        <v>693794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,46 +1760,46 @@
         <v>679</v>
       </c>
       <c r="D18" s="7">
-        <v>671843</v>
+        <v>645442</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>712069</v>
+        <v>658756</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1679</v>
       </c>
       <c r="N18" s="7">
-        <v>1383912</v>
+        <v>1304199</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,46 +1813,46 @@
         <v>892</v>
       </c>
       <c r="D19" s="7">
-        <v>871090</v>
+        <v>770992</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>1239</v>
       </c>
       <c r="I19" s="7">
-        <v>943633</v>
+        <v>864012</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>2131</v>
       </c>
       <c r="N19" s="7">
-        <v>1814723</v>
+        <v>1635003</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,46 +1864,46 @@
         <v>455</v>
       </c>
       <c r="D20" s="7">
-        <v>428797</v>
+        <v>415603</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>759</v>
       </c>
       <c r="I20" s="7">
-        <v>492871</v>
+        <v>454770</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>1214</v>
       </c>
       <c r="N20" s="7">
-        <v>921667</v>
+        <v>870372</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,25 +1915,25 @@
         <v>527</v>
       </c>
       <c r="D21" s="7">
-        <v>572251</v>
+        <v>559133</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>590477</v>
+        <v>543285</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>143</v>
@@ -1945,7 +1945,7 @@
         <v>1352</v>
       </c>
       <c r="N21" s="7">
-        <v>1162728</v>
+        <v>1102417</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>145</v>
@@ -1960,13 +1960,13 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>1488</v>
       </c>
       <c r="D22" s="7">
-        <v>1503362</v>
+        <v>1704981</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>148</v>
@@ -1981,7 +1981,7 @@
         <v>2524</v>
       </c>
       <c r="I22" s="7">
-        <v>1769891</v>
+        <v>1789402</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>151</v>
@@ -1996,7 +1996,7 @@
         <v>4012</v>
       </c>
       <c r="N22" s="7">
-        <v>3273253</v>
+        <v>3494383</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>154</v>
@@ -2017,46 +2017,46 @@
         <v>3362</v>
       </c>
       <c r="D23" s="7">
-        <v>3375499</v>
+        <v>3450708</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>5347</v>
       </c>
       <c r="I23" s="7">
-        <v>3796871</v>
+        <v>3651468</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>8709</v>
       </c>
       <c r="N23" s="7">
-        <v>7172370</v>
+        <v>7102175</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
